--- a/data/euro-ccp/euro-ccp-Q4-2016.xlsx
+++ b/data/euro-ccp/euro-ccp-Q4-2016.xlsx
@@ -612,9 +612,11 @@
         <v>20892864</v>
       </c>
       <c r="R2" t="n">
-        <v>92118685</v>
-      </c>
-      <c r="S2" t="s"/>
+        <v>93251388</v>
+      </c>
+      <c r="S2" t="n">
+        <v>373136740</v>
+      </c>
       <c r="T2" t="n">
         <v>812792061</v>
       </c>
